--- a/data/processed/Bexaroten 20250330_processed.xlsx
+++ b/data/processed/Bexaroten 20250330_processed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Analysis\github\project-ettler01\data\processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886F44B5-2CD5-417C-82A0-BA6A053DFFBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1BAD963-736E-4614-B3E2-8E9FEDDD09CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15832,10 +15832,10 @@
   <dimension ref="A1:AMZ46"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AN2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
-      <selection pane="bottomRight" activeCell="AP27" sqref="AP27"/>
+      <selection pane="bottomRight" activeCell="S2" sqref="S2:S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="25.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -22168,7 +22168,7 @@
   <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
